--- a/icd_files/25582.xlsx
+++ b/icd_files/25582.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027EC70-DDC3-41B0-BA13-81A988E2E578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F719F-C665-4BBF-8721-2642AEC5D6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="337">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -522,6 +522,12 @@
     <t>03-05</t>
   </si>
   <si>
+    <t>03-07</t>
+  </si>
+  <si>
+    <t>03-08</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -531,24 +537,144 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
     <t>Metoprolol</t>
   </si>
   <si>
-    <t>Amlodipine_x</t>
-  </si>
-  <si>
-    <t>Amlodipine_y</t>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Lansoprazole Oral Suspension</t>
+  </si>
+  <si>
+    <t>Soln.</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Vancomycin HCl</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Captopril</t>
+  </si>
+  <si>
+    <t>Aspirin EC</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Temazepam</t>
+  </si>
+  <si>
+    <t>Olanzapine</t>
+  </si>
+  <si>
+    <t>Abilify</t>
+  </si>
+  <si>
+    <t>Artificial Tears</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide MDI</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Aztreonam</t>
+  </si>
+  <si>
+    <t>Albuterol Neb Soln</t>
+  </si>
+  <si>
+    <t>Hydralazine HCl</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>100 BTL</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>15 CAP</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>1-2 DBTL</t>
+  </si>
+  <si>
+    <t>2 INH</t>
   </si>
   <si>
     <t>19:30</t>
   </si>
   <si>
-    <t>00:00</t>
-  </si>
-  <si>
     <t>12.5 TAB</t>
   </si>
   <si>
+    <t>325-650 SUPP</t>
+  </si>
+  <si>
+    <t>30 SYR</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -564,6 +690,12 @@
     <t>37.5 TAB</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -573,28 +705,61 @@
     <t>16:00</t>
   </si>
   <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>81 TAB</t>
+  </si>
+  <si>
+    <t>30 UDCUP</t>
+  </si>
+  <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>2.5 TAB</t>
+  </si>
+  <si>
     <t>50 TAB</t>
   </si>
   <si>
-    <t>5 TAB</t>
-  </si>
-  <si>
-    <t>2.5 TAB</t>
-  </si>
-  <si>
-    <t>10 TAB</t>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>15 ml</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
-    <t>25 TAB</t>
+    <t>325 TAB</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
     <t>14:00</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3749,7 +3914,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000000-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4672,7 +4837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000001-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5595,7 +5760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000002-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6371,7 +6536,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000003-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7282,7 +7447,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000004-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7896,7 +8061,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000005-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8427,7 +8592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000006-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8958,7 +9123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000007-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9510,7 +9675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000008-41E6-4507-970F-E35366AE9B72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9953,7 +10118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BCD861-6F7A-42AD-A24F-55AE5AFEC261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D751BBB-64E0-45DF-B643-2AFE16D7E148}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -9978,7 +10143,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9991,7 +10156,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -10004,7 +10169,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -10017,7 +10182,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -10030,27 +10195,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -10078,7 +10243,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10106,11 +10271,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -10133,7 +10298,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10170,7 +10335,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -10193,14 +10358,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -10223,14 +10388,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -10253,14 +10418,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -10283,14 +10448,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -10313,16 +10478,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10345,14 +10510,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10375,10 +10540,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10386,7 +10551,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10398,7 +10563,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10421,7 +10586,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10437,11 +10602,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10464,7 +10629,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10482,7 +10647,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10505,7 +10670,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10524,7 +10689,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10547,10 +10712,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10568,7 +10733,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10591,52 +10756,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10659,53 +10824,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10728,43 +10893,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10772,7 +10937,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10795,43 +10960,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -10839,7 +11004,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -10862,43 +11027,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -10906,7 +11071,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -10929,43 +11094,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -10973,7 +11138,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -10996,43 +11161,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -11040,7 +11205,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -11063,43 +11228,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -11107,7 +11272,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -11130,43 +11295,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -11174,7 +11339,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -11197,43 +11362,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -11241,7 +11406,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -11264,43 +11429,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -11308,7 +11473,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11331,43 +11496,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11375,7 +11540,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11398,43 +11563,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11442,7 +11607,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11465,7 +11630,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11478,10 +11643,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11489,7 +11654,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11512,14 +11677,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11534,7 +11699,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11557,7 +11722,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11577,7 +11742,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11600,7 +11765,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11620,7 +11785,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11643,7 +11808,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11661,11 +11826,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11688,14 +11853,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11718,14 +11883,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11748,14 +11913,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11778,14 +11943,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11808,14 +11973,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -11838,14 +12003,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -11868,10 +12033,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -11888,7 +12053,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -11911,7 +12076,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -11929,7 +12094,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -11952,7 +12117,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -11970,7 +12135,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -11993,14 +12158,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -12023,14 +12188,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -12053,24 +12218,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -12093,7 +12258,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -12102,7 +12267,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -12125,14 +12290,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -12140,7 +12305,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -12163,7 +12328,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -12172,7 +12337,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -12195,14 +12360,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -12210,7 +12375,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -12233,7 +12398,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -12242,7 +12407,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -12265,24 +12430,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -12305,7 +12470,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -12314,7 +12479,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12337,22 +12502,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12360,7 +12525,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12383,7 +12548,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12396,7 +12561,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12419,32 +12584,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12467,7 +12632,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12476,7 +12641,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12499,14 +12664,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12514,7 +12679,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12537,14 +12702,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12567,12 +12732,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12600,7 +12765,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12627,13 +12792,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12661,7 +12826,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12773,7 +12938,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12801,7 +12966,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12829,7 +12994,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -16244,13 +16409,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AN38"/>
+  <dimension ref="A30:BI64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -16258,12 +16423,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>159</v>
@@ -16278,7 +16443,7 @@
         <v>159</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>160</v>
@@ -16296,10 +16461,10 @@
         <v>160</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>161</v>
@@ -16317,204 +16482,327 @@
         <v>161</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="BG31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K32" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="M32" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="R32" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="S32" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="T32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="U32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="V32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="W32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="X32" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="Y32" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Z32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="AA32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AC32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AD32" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AE32" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="AF32" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG32" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AH32" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="AI32" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="AJ32" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="AK32" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AL32" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AM32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -16541,16 +16829,16 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>7</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O35">
         <v>7</v>
@@ -16562,7 +16850,7 @@
         <v>7</v>
       </c>
       <c r="R35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S35">
         <v>7</v>
@@ -16580,7 +16868,7 @@
         <v>7</v>
       </c>
       <c r="X35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -16595,85 +16883,749 @@
         <v>7</v>
       </c>
       <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <v>7</v>
+      </c>
+      <c r="AF35">
+        <v>7</v>
+      </c>
+      <c r="AG35">
+        <v>7</v>
+      </c>
+      <c r="AH35">
+        <v>7</v>
+      </c>
+      <c r="AI35">
+        <v>7</v>
+      </c>
+      <c r="AJ35">
+        <v>8</v>
+      </c>
+      <c r="AK35">
+        <v>7</v>
+      </c>
+      <c r="AL35">
+        <v>7</v>
+      </c>
+      <c r="AM35">
+        <v>7</v>
+      </c>
+      <c r="AN35">
+        <v>7</v>
+      </c>
+      <c r="AO35">
+        <v>7</v>
+      </c>
+      <c r="AP35">
+        <v>6</v>
+      </c>
+      <c r="AQ35">
+        <v>7</v>
+      </c>
+      <c r="AR35">
+        <v>7</v>
+      </c>
+      <c r="AS35">
+        <v>7</v>
+      </c>
+      <c r="AT35">
+        <v>7</v>
+      </c>
+      <c r="AU35">
         <v>11</v>
       </c>
-      <c r="AD35">
+      <c r="AV35">
         <v>11</v>
       </c>
-      <c r="AE35">
+      <c r="AW35">
         <v>11</v>
       </c>
-      <c r="AF35">
+      <c r="AX35">
         <v>11</v>
       </c>
-      <c r="AG35">
+      <c r="AY35">
         <v>15</v>
       </c>
-      <c r="AH35">
+      <c r="AZ35">
         <v>15</v>
       </c>
-      <c r="AI35">
+      <c r="BA35">
         <v>15</v>
       </c>
-      <c r="AJ35">
+      <c r="BB35">
         <v>15</v>
       </c>
-      <c r="AK35">
+      <c r="BC35">
         <v>15</v>
       </c>
-      <c r="AL35">
+      <c r="BD35">
         <v>15</v>
       </c>
-      <c r="AM35">
+      <c r="BE35">
         <v>15</v>
       </c>
-      <c r="AN35">
+      <c r="BF35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>201</v>
+      </c>
+      <c r="R37" t="s">
+        <v>201</v>
+      </c>
+      <c r="S37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="U37" t="s">
+        <v>201</v>
+      </c>
+      <c r="V37" t="s">
+        <v>227</v>
+      </c>
+      <c r="W37" t="s">
+        <v>227</v>
+      </c>
+      <c r="X37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H36" t="s">
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N36" t="s">
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>223</v>
+      </c>
+      <c r="J44" t="s">
+        <v>223</v>
+      </c>
+      <c r="P44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>205</v>
+      </c>
+      <c r="R44" t="s">
+        <v>205</v>
+      </c>
+      <c r="S44" t="s">
+        <v>205</v>
+      </c>
+      <c r="T44" t="s">
+        <v>205</v>
+      </c>
+      <c r="U44" t="s">
+        <v>205</v>
+      </c>
+      <c r="V44" t="s">
+        <v>205</v>
+      </c>
+      <c r="W44" t="s">
+        <v>205</v>
+      </c>
+      <c r="X44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>228</v>
+      </c>
+      <c r="R45" t="s">
+        <v>233</v>
+      </c>
+      <c r="S45" t="s">
+        <v>233</v>
+      </c>
+      <c r="T45" t="s">
+        <v>233</v>
+      </c>
+      <c r="U45" t="s">
+        <v>233</v>
+      </c>
+      <c r="V45" t="s">
+        <v>228</v>
+      </c>
+      <c r="W45" t="s">
+        <v>233</v>
+      </c>
+      <c r="X45" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>232</v>
+      </c>
+      <c r="R46" t="s">
+        <v>232</v>
+      </c>
+      <c r="S46" t="s">
+        <v>214</v>
+      </c>
+      <c r="T46" t="s">
+        <v>232</v>
+      </c>
+      <c r="U46" t="s">
+        <v>214</v>
+      </c>
+      <c r="V46" t="s">
+        <v>232</v>
+      </c>
+      <c r="W46" t="s">
+        <v>232</v>
+      </c>
+      <c r="X46" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>229</v>
+      </c>
+      <c r="R47" t="s">
+        <v>229</v>
+      </c>
+      <c r="S47" t="s">
+        <v>229</v>
+      </c>
+      <c r="T47" t="s">
+        <v>229</v>
+      </c>
+      <c r="U47" t="s">
+        <v>229</v>
+      </c>
+      <c r="V47" t="s">
+        <v>229</v>
+      </c>
+      <c r="W47" t="s">
+        <v>229</v>
+      </c>
+      <c r="X47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA36" t="s">
+      <c r="P48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>230</v>
+      </c>
+      <c r="R48" t="s">
+        <v>230</v>
+      </c>
+      <c r="S48" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" t="s">
+        <v>230</v>
+      </c>
+      <c r="U48" t="s">
+        <v>230</v>
+      </c>
+      <c r="V48" t="s">
+        <v>230</v>
+      </c>
+      <c r="W48" t="s">
+        <v>230</v>
+      </c>
+      <c r="X48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R49" t="s">
+        <v>231</v>
+      </c>
+      <c r="S49" t="s">
+        <v>231</v>
+      </c>
+      <c r="T49" t="s">
+        <v>231</v>
+      </c>
+      <c r="U49" t="s">
+        <v>231</v>
+      </c>
+      <c r="V49" t="s">
+        <v>231</v>
+      </c>
+      <c r="W49" t="s">
+        <v>231</v>
+      </c>
+      <c r="X49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N37" t="s">
-        <v>184</v>
-      </c>
-      <c r="O37" t="s">
-        <v>184</v>
-      </c>
-      <c r="U37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N38" t="s">
-        <v>185</v>
-      </c>
-      <c r="O38" t="s">
-        <v>185</v>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/25582.xlsx
+++ b/icd_files/25582.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027EC70-DDC3-41B0-BA13-81A988E2E578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF7F33-7FD7-4344-ADB4-B7A8C32DB741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="337">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -522,6 +522,12 @@
     <t>03-05</t>
   </si>
   <si>
+    <t>03-07</t>
+  </si>
+  <si>
+    <t>03-08</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -531,24 +537,144 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
     <t>Metoprolol</t>
   </si>
   <si>
-    <t>Amlodipine_x</t>
-  </si>
-  <si>
-    <t>Amlodipine_y</t>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Lansoprazole Oral Suspension</t>
+  </si>
+  <si>
+    <t>Soln.</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Vancomycin HCl</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Captopril</t>
+  </si>
+  <si>
+    <t>Aspirin EC</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Temazepam</t>
+  </si>
+  <si>
+    <t>Olanzapine</t>
+  </si>
+  <si>
+    <t>Abilify</t>
+  </si>
+  <si>
+    <t>Artificial Tears</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide MDI</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Aztreonam</t>
+  </si>
+  <si>
+    <t>Albuterol Neb Soln</t>
+  </si>
+  <si>
+    <t>Hydralazine HCl</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>100 BTL</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>15 CAP</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>1-2 DBTL</t>
+  </si>
+  <si>
+    <t>2 INH</t>
   </si>
   <si>
     <t>19:30</t>
   </si>
   <si>
-    <t>00:00</t>
-  </si>
-  <si>
     <t>12.5 TAB</t>
   </si>
   <si>
+    <t>325-650 SUPP</t>
+  </si>
+  <si>
+    <t>30 SYR</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -564,6 +690,12 @@
     <t>37.5 TAB</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -573,28 +705,61 @@
     <t>16:00</t>
   </si>
   <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>81 TAB</t>
+  </si>
+  <si>
+    <t>30 UDCUP</t>
+  </si>
+  <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>2.5 TAB</t>
+  </si>
+  <si>
     <t>50 TAB</t>
   </si>
   <si>
-    <t>5 TAB</t>
-  </si>
-  <si>
-    <t>2.5 TAB</t>
-  </si>
-  <si>
-    <t>10 TAB</t>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>15 ml</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
-    <t>25 TAB</t>
+    <t>325 TAB</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
     <t>14:00</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3749,7 +3914,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000000-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4672,7 +4837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000001-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5595,7 +5760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000002-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6371,7 +6536,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000003-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7282,7 +7447,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000004-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7801,13 +7966,13 @@
                   <c:v>100.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>99.59999847412108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>99.699996948242202</c:v>
+                  <c:v>99.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>98.300003051757798</c:v>
@@ -7828,7 +7993,7 @@
                   <c:v>99.400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>98.900001525878906</c:v>
@@ -7852,7 +8017,7 @@
                   <c:v>99.59999847412108</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>99.699996948242202</c:v>
+                  <c:v>99.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>99.09999847412108</c:v>
@@ -7864,10 +8029,10 @@
                   <c:v>99.400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>99.199996948242202</c:v>
+                  <c:v>99.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>99.199996948242202</c:v>
+                  <c:v>99.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>99.300003051757798</c:v>
@@ -7876,19 +8041,19 @@
                   <c:v>99.09999847412108</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>98.400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>98.900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7896,7 +8061,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000005-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8427,7 +8592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000006-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8958,7 +9123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000007-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9510,7 +9675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BB80-40BC-B380-CC912A5A123E}"/>
+              <c16:uniqueId val="{00000008-6518-41D6-B31A-07476D8A4E64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9953,7 +10118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BCD861-6F7A-42AD-A24F-55AE5AFEC261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5725AF7E-DB32-4B07-832E-60D385030179}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -9978,7 +10143,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9991,7 +10156,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -10004,7 +10169,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -10017,7 +10182,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -10030,27 +10195,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -10078,7 +10243,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10106,11 +10271,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -10133,7 +10298,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10170,7 +10335,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -10193,14 +10358,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -10223,14 +10388,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -10253,14 +10418,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -10283,14 +10448,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -10313,16 +10478,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10345,14 +10510,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10375,10 +10540,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10386,7 +10551,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10398,7 +10563,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10421,7 +10586,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10437,11 +10602,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10464,7 +10629,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10482,7 +10647,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10505,7 +10670,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10524,7 +10689,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10547,10 +10712,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10568,7 +10733,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10591,52 +10756,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10659,53 +10824,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10728,43 +10893,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10772,7 +10937,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10795,43 +10960,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -10839,7 +11004,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -10862,43 +11027,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -10906,7 +11071,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -10929,43 +11094,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -10973,7 +11138,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -10996,43 +11161,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -11040,7 +11205,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -11063,43 +11228,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -11107,7 +11272,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -11130,43 +11295,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -11174,7 +11339,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -11197,43 +11362,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -11241,7 +11406,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -11264,43 +11429,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -11308,7 +11473,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11331,43 +11496,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11375,7 +11540,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11398,43 +11563,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11442,7 +11607,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11465,7 +11630,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11478,10 +11643,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11489,7 +11654,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11512,14 +11677,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11534,7 +11699,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11557,7 +11722,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11577,7 +11742,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11600,7 +11765,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11620,7 +11785,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11643,7 +11808,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11661,11 +11826,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11688,14 +11853,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11718,14 +11883,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11748,14 +11913,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11778,14 +11943,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11808,14 +11973,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -11838,14 +12003,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -11868,10 +12033,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -11888,7 +12053,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -11911,7 +12076,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -11929,7 +12094,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -11952,7 +12117,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -11970,7 +12135,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -11993,14 +12158,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -12023,14 +12188,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -12053,24 +12218,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -12093,7 +12258,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -12102,7 +12267,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -12125,14 +12290,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -12140,7 +12305,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -12163,7 +12328,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -12172,7 +12337,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -12195,14 +12360,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -12210,7 +12375,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -12233,7 +12398,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -12242,7 +12407,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -12265,24 +12430,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -12305,7 +12470,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -12314,7 +12479,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12337,22 +12502,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12360,7 +12525,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12383,7 +12548,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12396,7 +12561,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12419,32 +12584,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12467,7 +12632,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12476,7 +12641,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12499,14 +12664,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12514,7 +12679,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12537,14 +12702,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12567,12 +12732,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12600,7 +12765,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12627,13 +12792,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12661,7 +12826,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12773,7 +12938,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12801,7 +12966,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12829,7 +12994,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -13693,7 +13858,7 @@
         <v>100</v>
       </c>
       <c r="H33">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -13894,7 +14059,7 @@
         <v>100</v>
       </c>
       <c r="H42">
-        <v>99.699996948242202</v>
+        <v>99.699996948242188</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -14515,7 +14680,7 @@
         <v>100</v>
       </c>
       <c r="H69">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -15187,7 +15352,7 @@
         <v>100</v>
       </c>
       <c r="H99">
-        <v>99.699996948242202</v>
+        <v>99.699996948242188</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -15555,7 +15720,7 @@
         <v>99</v>
       </c>
       <c r="H115">
-        <v>99.199996948242202</v>
+        <v>99.199996948242188</v>
       </c>
       <c r="K115">
         <v>4</v>
@@ -15650,7 +15815,7 @@
         <v>98</v>
       </c>
       <c r="H119">
-        <v>99.199996948242202</v>
+        <v>99.199996948242188</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -16003,7 +16168,7 @@
         <v>100</v>
       </c>
       <c r="H135">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -16092,7 +16257,7 @@
         <v>98</v>
       </c>
       <c r="H139">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -16217,7 +16382,7 @@
         <v>73</v>
       </c>
       <c r="H146">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -16244,13 +16409,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AN38"/>
+  <dimension ref="A30:BI64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -16258,12 +16423,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>159</v>
@@ -16278,7 +16443,7 @@
         <v>159</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>160</v>
@@ -16296,10 +16461,10 @@
         <v>160</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>161</v>
@@ -16317,204 +16482,327 @@
         <v>161</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="BG31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K32" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="M32" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="N32" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="R32" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="S32" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="T32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="U32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="V32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="W32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="X32" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="Y32" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Z32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="AA32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AC32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AD32" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AE32" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="AF32" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG32" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AH32" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="AI32" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="AJ32" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="AK32" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AL32" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AM32" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -16541,16 +16829,16 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>7</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O35">
         <v>7</v>
@@ -16562,7 +16850,7 @@
         <v>7</v>
       </c>
       <c r="R35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S35">
         <v>7</v>
@@ -16580,7 +16868,7 @@
         <v>7</v>
       </c>
       <c r="X35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -16595,85 +16883,749 @@
         <v>7</v>
       </c>
       <c r="AC35">
+        <v>7</v>
+      </c>
+      <c r="AD35">
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <v>7</v>
+      </c>
+      <c r="AF35">
+        <v>7</v>
+      </c>
+      <c r="AG35">
+        <v>7</v>
+      </c>
+      <c r="AH35">
+        <v>7</v>
+      </c>
+      <c r="AI35">
+        <v>7</v>
+      </c>
+      <c r="AJ35">
+        <v>8</v>
+      </c>
+      <c r="AK35">
+        <v>7</v>
+      </c>
+      <c r="AL35">
+        <v>7</v>
+      </c>
+      <c r="AM35">
+        <v>7</v>
+      </c>
+      <c r="AN35">
+        <v>7</v>
+      </c>
+      <c r="AO35">
+        <v>7</v>
+      </c>
+      <c r="AP35">
+        <v>6</v>
+      </c>
+      <c r="AQ35">
+        <v>7</v>
+      </c>
+      <c r="AR35">
+        <v>7</v>
+      </c>
+      <c r="AS35">
+        <v>7</v>
+      </c>
+      <c r="AT35">
+        <v>7</v>
+      </c>
+      <c r="AU35">
         <v>11</v>
       </c>
-      <c r="AD35">
+      <c r="AV35">
         <v>11</v>
       </c>
-      <c r="AE35">
+      <c r="AW35">
         <v>11</v>
       </c>
-      <c r="AF35">
+      <c r="AX35">
         <v>11</v>
       </c>
-      <c r="AG35">
+      <c r="AY35">
         <v>15</v>
       </c>
-      <c r="AH35">
+      <c r="AZ35">
         <v>15</v>
       </c>
-      <c r="AI35">
+      <c r="BA35">
         <v>15</v>
       </c>
-      <c r="AJ35">
+      <c r="BB35">
         <v>15</v>
       </c>
-      <c r="AK35">
+      <c r="BC35">
         <v>15</v>
       </c>
-      <c r="AL35">
+      <c r="BD35">
         <v>15</v>
       </c>
-      <c r="AM35">
+      <c r="BE35">
         <v>15</v>
       </c>
-      <c r="AN35">
+      <c r="BF35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>201</v>
+      </c>
+      <c r="R37" t="s">
+        <v>201</v>
+      </c>
+      <c r="S37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="U37" t="s">
+        <v>201</v>
+      </c>
+      <c r="V37" t="s">
+        <v>227</v>
+      </c>
+      <c r="W37" t="s">
+        <v>227</v>
+      </c>
+      <c r="X37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H36" t="s">
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" t="s">
+        <v>203</v>
+      </c>
+      <c r="J41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N36" t="s">
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>223</v>
+      </c>
+      <c r="J44" t="s">
+        <v>223</v>
+      </c>
+      <c r="P44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>205</v>
+      </c>
+      <c r="R44" t="s">
+        <v>205</v>
+      </c>
+      <c r="S44" t="s">
+        <v>205</v>
+      </c>
+      <c r="T44" t="s">
+        <v>205</v>
+      </c>
+      <c r="U44" t="s">
+        <v>205</v>
+      </c>
+      <c r="V44" t="s">
+        <v>205</v>
+      </c>
+      <c r="W44" t="s">
+        <v>205</v>
+      </c>
+      <c r="X44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>228</v>
+      </c>
+      <c r="R45" t="s">
+        <v>233</v>
+      </c>
+      <c r="S45" t="s">
+        <v>233</v>
+      </c>
+      <c r="T45" t="s">
+        <v>233</v>
+      </c>
+      <c r="U45" t="s">
+        <v>233</v>
+      </c>
+      <c r="V45" t="s">
+        <v>228</v>
+      </c>
+      <c r="W45" t="s">
+        <v>233</v>
+      </c>
+      <c r="X45" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>232</v>
+      </c>
+      <c r="R46" t="s">
+        <v>232</v>
+      </c>
+      <c r="S46" t="s">
+        <v>214</v>
+      </c>
+      <c r="T46" t="s">
+        <v>232</v>
+      </c>
+      <c r="U46" t="s">
+        <v>214</v>
+      </c>
+      <c r="V46" t="s">
+        <v>232</v>
+      </c>
+      <c r="W46" t="s">
+        <v>232</v>
+      </c>
+      <c r="X46" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>229</v>
+      </c>
+      <c r="R47" t="s">
+        <v>229</v>
+      </c>
+      <c r="S47" t="s">
+        <v>229</v>
+      </c>
+      <c r="T47" t="s">
+        <v>229</v>
+      </c>
+      <c r="U47" t="s">
+        <v>229</v>
+      </c>
+      <c r="V47" t="s">
+        <v>229</v>
+      </c>
+      <c r="W47" t="s">
+        <v>229</v>
+      </c>
+      <c r="X47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA36" t="s">
+      <c r="P48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>230</v>
+      </c>
+      <c r="R48" t="s">
+        <v>230</v>
+      </c>
+      <c r="S48" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" t="s">
+        <v>230</v>
+      </c>
+      <c r="U48" t="s">
+        <v>230</v>
+      </c>
+      <c r="V48" t="s">
+        <v>230</v>
+      </c>
+      <c r="W48" t="s">
+        <v>230</v>
+      </c>
+      <c r="X48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R49" t="s">
+        <v>231</v>
+      </c>
+      <c r="S49" t="s">
+        <v>231</v>
+      </c>
+      <c r="T49" t="s">
+        <v>231</v>
+      </c>
+      <c r="U49" t="s">
+        <v>231</v>
+      </c>
+      <c r="V49" t="s">
+        <v>231</v>
+      </c>
+      <c r="W49" t="s">
+        <v>231</v>
+      </c>
+      <c r="X49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N37" t="s">
-        <v>184</v>
-      </c>
-      <c r="O37" t="s">
-        <v>184</v>
-      </c>
-      <c r="U37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N38" t="s">
-        <v>185</v>
-      </c>
-      <c r="O38" t="s">
-        <v>185</v>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
